--- a/GE_FORET_einheiten_unique_bh2_mf.xlsx
+++ b/GE_FORET_einheiten_unique_bh2_mf.xlsx
@@ -5,25 +5,38 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frehnerm\Documents\excel\Aufträge\Sensi CH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\develops\sensitivewaldstandorteCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{543420B8-2B79-438E-8B81-873144C6DFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EA633C-2C26-4921-9258-CA1A52898FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5520" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="55995" yWindow="3765" windowWidth="19215" windowHeight="19875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>TYPE</t>
   </si>
@@ -88,9 +101,6 @@
     <t>NaiS</t>
   </si>
   <si>
-    <t>Bemerkungen FC</t>
-  </si>
-  <si>
     <t>35A</t>
   </si>
   <si>
@@ -115,9 +125,6 @@
     <t>35M</t>
   </si>
   <si>
-    <t>Vereinfachungsvorschlag für Sensi</t>
-  </si>
-  <si>
     <t>evtl. 35A, 29A, (29), 26)</t>
   </si>
   <si>
@@ -134,6 +141,24 @@
   </si>
   <si>
     <t>eher 35M machen?</t>
+  </si>
+  <si>
+    <t>NaiS_Detail</t>
+  </si>
+  <si>
+    <t>Bemerkungen_FC</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>NaiS_vereinfacht</t>
+  </si>
+  <si>
+    <t>9a</t>
+  </si>
+  <si>
+    <t>3%M</t>
   </si>
 </sst>
 </file>
@@ -202,27 +227,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -525,322 +553,395 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="79.21875" customWidth="1"/>
-    <col min="4" max="4" width="36.21875" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" customWidth="1"/>
+    <col min="2" max="2" width="79.28515625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="10"/>
+    <col min="4" max="4" width="36.28515625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" s="7">
+        <v>26</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>20</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="7" t="str">
+        <f>D6</f>
+        <v>29A/26</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>40</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="6" t="str">
+        <f t="shared" ref="E7:E20" si="0">D7</f>
+        <v>35A</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>51</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="8">
         <v>38</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="8">
         <v>38</v>
       </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>72</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="3">
         <v>62</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="5">
         <v>62</v>
       </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>76</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>79</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>89</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="5">
         <v>44</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="5">
         <v>44</v>
       </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" s="5">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>123</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>149</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>158</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>35A</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>169</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>184</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="C17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="6">
         <v>26</v>
       </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E17" s="6">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>209</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>35A</v>
+      </c>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>315</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="9">
+      <c r="C19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="5">
         <v>39</v>
       </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="5">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>362</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="5">
         <v>62</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="5">
         <v>62</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="5">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="F20" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>